--- a/biology/Zoologie/Bolitoglossa/Bolitoglossa.xlsx
+++ b/biology/Zoologie/Bolitoglossa/Bolitoglossa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bolitoglossa est un genre d'urodèles de la famille des Plethodontidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bolitoglossa est un genre d'urodèles de la famille des Plethodontidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les plus de 130 espèces de ce genre se rencontrent au Mexique, en Amérique centrale, en Colombie, au Venezuela, en Équateur, dans le Nord du Brésil et dans le centre de la Bolivie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plus de 130 espèces de ce genre se rencontrent au Mexique, en Amérique centrale, en Colombie, au Venezuela, en Équateur, dans le Nord du Brésil et dans le centre de la Bolivie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Amphibian Species of the World                      (2 septembre 2020)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Amphibian Species of the World                      (2 septembre 2020) :
 Bolitoglossa adspersa (Peters, 1863)
 Bolitoglossa alberchi García-París, Parra-Olea, Brame &amp; Wake, 2002
 Bolitoglossa altamazonica (Cope, 1874)
@@ -708,10 +724,12 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Oedipus[3] est préoccupé par Oedipus Berthold, 1827 dans les Orthoptera et Palmatotriton[4] n'a pas été publié selon les règles[5].
-Eladinea[6] a été placé en synonymie avec Bolitoglossa par Myers et de Carvalho en 1945[7] et Magnadigita[8] par Wake et Brame en 1963[9]. Nanotriton[10], Oaxakia[10], Pachymandra[10] et Mayamandra[10] ont été créés en tant que sous-genres de Bolitoglossa.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Oedipus est préoccupé par Oedipus Berthold, 1827 dans les Orthoptera et Palmatotriton n'a pas été publié selon les règles.
+Eladinea a été placé en synonymie avec Bolitoglossa par Myers et de Carvalho en 1945 et Magnadigita par Wake et Brame en 1963. Nanotriton, Oaxakia, Pachymandra et Mayamandra ont été créés en tant que sous-genres de Bolitoglossa.
 </t>
         </is>
       </c>
@@ -740,7 +758,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de ce genre, du grec βωλίτης, bolitos, « champignon », et γλωσσα, glossa, « langue », a été choisi en référence à la forme particulière de leur langue. Dans leur description, les auteurs écrivaient « [une] langue formant un disque arrondi, libre dans son pourtour, supportée en dessous et au centre par un pédicule grêle, musculeux et protractile, simulant une sorte de champignon... ». La référence à cet organe se retrouve dans le nom vernaculaire anglais de plusieurs de ces salamandres appelées mushroom-tongue salamander, « salamandres à la langue champignon ».
 </t>
@@ -771,7 +791,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Duméril, Bibron &amp; Duméril, 1854 : Erpétologie Générale ou Histoire Naturelle Complète des Reptiles. Tome neuvième, p. 1-440 (texte intégral).</t>
         </is>
